--- a/rawdata/TablePiton.xlsx
+++ b/rawdata/TablePiton.xlsx
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -76,17 +76,6 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -108,31 +97,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -362,7 +344,9 @@
     <col customWidth="1" min="9" max="9" width="12.29"/>
     <col customWidth="1" min="10" max="11" width="9.57"/>
     <col customWidth="1" min="12" max="12" width="10.71"/>
-    <col customWidth="1" min="13" max="27" width="8.71"/>
+    <col customWidth="1" min="13" max="13" width="20.14"/>
+    <col customWidth="1" min="14" max="14" width="19.0"/>
+    <col customWidth="1" min="15" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -377,18 +361,18 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -406,1722 +390,1722 @@
       <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>13363.0</v>
       </c>
       <c r="D3" s="1">
         <v>500000.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>500000.0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9">
+      <c r="F3" s="5"/>
+      <c r="G3" s="6">
         <v>1.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>1.0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>73.0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>13363.0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>35865.0</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <v>0.0107</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>13740.0</v>
       </c>
       <c r="D4" s="1">
         <v>1.245E7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>1.295E7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>2.0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>74.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>119.0</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>36360.0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <v>43294.0</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="6">
         <v>0.0228</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>13881.0</v>
       </c>
       <c r="D5" s="1">
         <v>4200000.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>1.715E7</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>14230.0</v>
       </c>
       <c r="D6" s="1">
         <v>3.735E7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>5.45E7</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>15615.0</v>
       </c>
       <c r="D7" s="1">
         <v>1100000.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>5.56E7</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>15738.0</v>
       </c>
       <c r="D8" s="1">
         <v>500000.0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>5.61E7</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>15797.0</v>
       </c>
       <c r="D9" s="1">
         <v>2.0E7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>7.61E7</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>16163.0</v>
       </c>
       <c r="D10" s="1">
         <v>500000.0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>7.66E7</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>9.0</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>16542.0</v>
       </c>
       <c r="D11" s="1">
         <v>8400000.0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>8.5E7</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>10.0</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>16971.0</v>
       </c>
       <c r="D12" s="1">
         <v>7900000.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>9.29E7</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>11.0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>17577.0</v>
       </c>
       <c r="D13" s="1">
         <v>3.2E7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>1.249E8</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>12.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>18323.0</v>
       </c>
       <c r="D14" s="1">
         <v>4200000.0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>1.291E8</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>13.0</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>19144.0</v>
       </c>
       <c r="D15" s="1">
         <v>6300000.0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>1.354E8</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>14.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>19431.0</v>
       </c>
       <c r="D16" s="1">
         <v>5600000.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>1.41E8</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>15.0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>19526.0</v>
       </c>
       <c r="D17" s="1">
         <v>3.198E7</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>1.7298E8</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>20276.0</v>
       </c>
       <c r="D18" s="1">
         <v>6000000.0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>1.7898E8</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>20523.0</v>
       </c>
       <c r="D19" s="1">
         <v>5600000.0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>1.8458E8</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>20782.0</v>
       </c>
       <c r="D20" s="1">
         <v>100000.0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>1.8468E8</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>20819.0</v>
       </c>
       <c r="D21" s="1">
         <v>8400000.0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>1.9308E8</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>20.0</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>21065.0</v>
       </c>
       <c r="D22" s="1">
         <v>800000.0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>1.9388E8</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>21.0</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>21114.0</v>
       </c>
       <c r="D23" s="1">
         <v>7200000.0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>2.0108E8</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>22.0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>21335.0</v>
       </c>
       <c r="D24" s="1">
         <v>600000.0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <v>2.0168E8</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>23.0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>21403.0</v>
       </c>
       <c r="D25" s="1">
         <v>4000000.0</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>2.0568E8</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>24.0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>21620.0</v>
       </c>
       <c r="D26" s="1">
         <v>8400000.0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
         <v>2.1408E8</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>25.0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>21766.0</v>
       </c>
       <c r="D27" s="1">
         <v>2400000.0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>2.1648E8</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>26.0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>22376.0</v>
       </c>
       <c r="D28" s="1">
         <v>7.5E7</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <v>2.9148E8</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>27.0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>23496.0</v>
       </c>
       <c r="D29" s="1">
         <v>1.62E7</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>3.0768E8</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>28.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>23757.0</v>
       </c>
       <c r="D30" s="1">
         <v>1.88E7</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="5">
         <v>3.2648E8</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>29.0</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>24167.0</v>
       </c>
       <c r="D31" s="1">
         <v>1.24E7</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>3.3888E8</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>30.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>26459.0</v>
       </c>
       <c r="D32" s="1">
         <v>600000.0</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="5">
         <v>3.3948E8</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>31.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>26505.0</v>
       </c>
       <c r="D33" s="1">
         <v>5600000.0</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <v>3.4508E8</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>32.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>26551.0</v>
       </c>
       <c r="D34" s="1">
         <v>4200000.0</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="5">
         <v>3.4928E8</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>33.0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>26582.0</v>
       </c>
       <c r="D35" s="1">
         <v>2.51E7</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>3.7438E8</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>34.0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>26672.0</v>
       </c>
       <c r="D36" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="5">
         <v>3.7538E8</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>35.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>26794.0</v>
       </c>
       <c r="D37" s="1">
         <v>1600000.0</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="5">
         <v>3.7698E8</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>36.0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <v>27702.0</v>
       </c>
       <c r="D38" s="1">
         <v>1400000.0</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="5">
         <v>3.7838E8</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>37.0</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="4">
         <v>27746.0</v>
       </c>
       <c r="D39" s="1">
         <v>1.86E7</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <v>3.9698E8</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>38.0</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="4">
         <v>28066.0</v>
       </c>
       <c r="D40" s="1">
         <v>600000.0</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="5">
         <v>3.9758E8</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>39.0</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="4">
         <v>28208.0</v>
       </c>
       <c r="D41" s="1">
         <v>60000.0</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <v>3.9764E8</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>40.0</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>28220.0</v>
       </c>
       <c r="D42" s="1">
         <v>2.0E7</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="5">
         <v>4.1764E8</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>41.0</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="4">
         <v>28422.0</v>
       </c>
       <c r="D43" s="1">
         <v>2.3E7</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="5">
         <v>4.4064E8</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>42.0</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="4">
         <v>29002.0</v>
       </c>
       <c r="D44" s="1">
         <v>200000.0</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="5">
         <v>4.4084E8</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>43.0</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="4">
         <v>29049.0</v>
       </c>
       <c r="D45" s="1">
         <v>300000.0</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="5">
         <v>4.4114E8</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>44.0</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="4">
         <v>29620.0</v>
       </c>
       <c r="D46" s="1">
         <v>2500000.0</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="5">
         <v>4.4364E8</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>45.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="4">
         <v>29641.0</v>
       </c>
       <c r="D47" s="1">
         <v>6800000.0</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="5">
         <v>4.5044E8</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>46.0</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="4">
         <v>29677.0</v>
       </c>
       <c r="D48" s="1">
         <v>5200000.0</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="5">
         <v>4.5564E8</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>47.0</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="4">
         <v>30654.0</v>
       </c>
       <c r="D49" s="1">
         <v>5400000.0</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="5">
         <v>4.6104E8</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>48.0</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="4">
         <v>30699.0</v>
       </c>
       <c r="D50" s="1">
         <v>1.44E7</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="5">
         <v>4.7544E8</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>49.0</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="4">
         <v>31212.0</v>
       </c>
       <c r="D51" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="5">
         <v>4.7644E8</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>50.0</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="4">
         <v>31264.0</v>
       </c>
       <c r="D52" s="1">
         <v>7000000.0</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="5">
         <v>4.8344E8</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="6">
+      <c r="A53" s="1">
         <v>51.0</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="4">
         <v>31296.0</v>
       </c>
       <c r="D53" s="1">
         <v>1.4E7</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="5">
         <v>4.9744E8</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="6">
+      <c r="A54" s="1">
         <v>52.0</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="4">
         <v>31382.0</v>
       </c>
       <c r="D54" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="5">
         <v>4.9894E8</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="6">
+      <c r="A55" s="1">
         <v>53.0</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="4">
         <v>31410.0</v>
       </c>
       <c r="D55" s="1">
         <v>7000000.0</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="5">
         <v>5.0594E8</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="6">
+      <c r="A56" s="1">
         <v>54.0</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="4">
         <v>31490.0</v>
       </c>
       <c r="D56" s="1">
         <v>1.45E7</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="5">
         <v>5.2044E8</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="6">
+      <c r="A57" s="1">
         <v>55.0</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="4">
         <v>31606.0</v>
       </c>
       <c r="D57" s="1">
         <v>280000.0</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="5">
         <v>5.2072E8</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="6">
+      <c r="A58" s="1">
         <v>56.0</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="4">
         <v>31728.0</v>
       </c>
       <c r="D58" s="1">
         <v>270000.0</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="5">
         <v>5.2099E8</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="6">
+      <c r="A59" s="1">
         <v>57.0</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="4">
         <v>31742.0</v>
       </c>
       <c r="D59" s="1">
         <v>240000.0</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="5">
         <v>5.2123E8</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="6">
+      <c r="A60" s="1">
         <v>58.0</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="4">
         <v>31752.0</v>
       </c>
       <c r="D60" s="1">
         <v>2000000.0</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="5">
         <v>5.2323E8</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="6">
+      <c r="A61" s="1">
         <v>59.0</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="4">
         <v>31784.0</v>
       </c>
       <c r="D61" s="1">
         <v>1.0E7</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="5">
         <v>5.3323E8</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="6">
+      <c r="A62" s="1">
         <v>60.0</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="4">
         <v>31938.0</v>
       </c>
       <c r="D62" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="5">
         <v>5.3423E8</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="6">
+      <c r="A63" s="1">
         <v>61.0</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="4">
         <v>31977.0</v>
       </c>
       <c r="D63" s="1">
         <v>900000.0</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="5">
         <v>5.3513E8</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="6">
+      <c r="A64" s="1">
         <v>62.0</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="4">
         <v>32087.0</v>
       </c>
       <c r="D64" s="1">
         <v>1600000.0</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="5">
         <v>5.3673E8</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="6">
+      <c r="A65" s="1">
         <v>63.0</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="4">
         <v>32111.0</v>
       </c>
       <c r="D65" s="1">
         <v>1.0E7</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="5">
         <v>5.4673E8</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="6">
+      <c r="A66" s="1">
         <v>64.0</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="4">
         <v>32180.0</v>
       </c>
       <c r="D66" s="1">
         <v>9000000.0</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="5">
         <v>5.5573E8</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="6">
+      <c r="A67" s="1">
         <v>65.0</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="4">
         <v>32281.0</v>
       </c>
       <c r="D67" s="1">
         <v>1.4E7</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="5">
         <v>5.6973E8</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="6">
+      <c r="A68" s="1">
         <v>66.0</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="4">
         <v>32386.0</v>
       </c>
       <c r="D68" s="1">
         <v>3600000.0</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="5">
         <v>5.7333E8</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="6">
+      <c r="A69" s="1">
         <v>67.0</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="4">
         <v>32491.0</v>
       </c>
       <c r="D69" s="1">
         <v>3600000.0</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="5">
         <v>5.7693E8</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="6">
+      <c r="A70" s="1">
         <v>68.0</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="4">
         <v>32891.0</v>
       </c>
       <c r="D70" s="1">
         <v>970000.0</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="5">
         <v>5.779E8</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="6">
+      <c r="A71" s="1">
         <v>69.0</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="4">
         <v>32981.0</v>
       </c>
       <c r="D71" s="1">
         <v>8000000.0</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="5">
         <v>5.859E8</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="6">
+      <c r="A72" s="1">
         <v>70.0</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="4">
         <v>33438.0</v>
       </c>
       <c r="D72" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="5">
         <v>5.869E8</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="6">
+      <c r="A73" s="1">
         <v>71.0</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="4">
         <v>33843.0</v>
       </c>
       <c r="D73" s="1">
         <v>8760000.0</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="5">
         <v>5.9566E8</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="6">
+      <c r="A74" s="1">
         <v>72.0</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="4">
         <v>35863.0</v>
       </c>
       <c r="D74" s="1">
         <v>6.0E7</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="5">
         <v>6.5566E8</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="6">
+      <c r="A75" s="1">
         <v>73.0</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="4">
         <v>35865.0</v>
       </c>
       <c r="D75" s="1">
         <v>2400000.0</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="5">
         <v>6.5806E8</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="6">
+      <c r="A76" s="1">
         <v>74.0</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="4">
         <v>36360.0</v>
       </c>
       <c r="D76" s="1">
         <v>1300000.0</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="5">
         <v>6.5936E8</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="6">
+      <c r="A77" s="1">
         <v>75.0</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="4">
         <v>36431.0</v>
       </c>
       <c r="D77" s="1">
         <v>1400000.0</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="5">
         <v>6.6076E8</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="6">
+      <c r="A78" s="1">
         <v>76.0</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="4">
         <v>36569.0</v>
       </c>
       <c r="D78" s="1">
         <v>8199999.999999999</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="5">
         <v>6.6896E8</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="6">
+      <c r="A79" s="1">
         <v>77.0</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="4">
         <v>36700.0</v>
       </c>
       <c r="D79" s="1">
         <v>1.0E7</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="5">
         <v>6.7896E8</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="6">
+      <c r="A80" s="1">
         <v>78.0</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="4">
         <v>36811.0</v>
       </c>
       <c r="D80" s="1">
         <v>9000000.0</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="5">
         <v>6.8796E8</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="6">
+      <c r="A81" s="1">
         <v>79.0</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="4">
         <v>36977.0</v>
       </c>
       <c r="D81" s="1">
         <v>4800000.0</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="5">
         <v>6.9276E8</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="6">
+      <c r="A82" s="1">
         <v>80.0</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="4">
         <v>37053.0</v>
       </c>
       <c r="D82" s="1">
         <v>9500000.0</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="5">
         <v>7.0226E8</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="6">
+      <c r="A83" s="1">
         <v>81.0</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="4">
         <v>37261.0</v>
       </c>
       <c r="D83" s="1">
         <v>1.3E7</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="5">
         <v>7.1526E8</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="6">
+      <c r="A84" s="1">
         <v>82.0</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="4">
         <v>37576.0</v>
       </c>
       <c r="D84" s="1">
         <v>1.512E7</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="5">
         <v>7.3038E8</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="6">
+      <c r="A85" s="1">
         <v>83.0</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="4">
         <v>37771.0</v>
       </c>
       <c r="D85" s="1">
         <v>160000.0</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="5">
         <v>7.3054E8</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="6">
+      <c r="A86" s="1">
         <v>84.0</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="4">
         <v>37776.0</v>
       </c>
       <c r="D86" s="1">
         <v>2000000.0</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="5">
         <v>7.3254E8</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="6">
+      <c r="A87" s="1">
         <v>85.0</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="4">
         <v>37855.0</v>
       </c>
       <c r="D87" s="1">
         <v>6200000.0</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="5">
         <v>7.3874E8</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="6">
+      <c r="A88" s="1">
         <v>86.0</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="4">
         <v>37894.0</v>
       </c>
       <c r="D88" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="5">
         <v>7.3974E8</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="6">
+      <c r="A89" s="1">
         <v>87.0</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="4">
         <v>37962.0</v>
       </c>
       <c r="D89" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="5">
         <v>7.4094E8</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="6">
+      <c r="A90" s="1">
         <v>88.0</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="4">
         <v>37994.0</v>
       </c>
       <c r="D90" s="1">
         <v>1900000.0</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="5">
         <v>7.4284E8</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="6">
+      <c r="A91" s="1">
         <v>89.0</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="4">
         <v>38109.0</v>
       </c>
       <c r="D91" s="1">
         <v>1.69E7</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="5">
         <v>7.5974E8</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="6">
+      <c r="A92" s="1">
         <v>90.0</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="4">
         <v>38211.0</v>
       </c>
       <c r="D92" s="1">
         <v>2.0E7</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="5">
         <v>7.7974E8</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="6">
+      <c r="A93" s="1">
         <v>91.0</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="4">
         <v>38400.0</v>
       </c>
       <c r="D93" s="1">
         <v>1.9E7</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="5">
         <v>7.9874E8</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="6">
+      <c r="A94" s="1">
         <v>92.0</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="4">
         <v>38629.0</v>
       </c>
       <c r="D94" s="1">
         <v>2000000.0</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="5">
         <v>8.0074E8</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="6">
+      <c r="A95" s="1">
         <v>93.0</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="4">
         <v>38685.0</v>
       </c>
       <c r="D95" s="1">
         <v>800000.0</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="5">
         <v>8.0154E8</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="6">
+      <c r="A96" s="1">
         <v>94.0</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="4">
         <v>38712.0</v>
       </c>
       <c r="D96" s="1">
         <v>2.0E7</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="5">
         <v>8.2154E8</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="6">
+      <c r="A97" s="1">
         <v>95.0</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="4">
         <v>38918.0</v>
       </c>
       <c r="D97" s="1">
         <v>3200000.0</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="5">
         <v>8.2474E8</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="6">
+      <c r="A98" s="1">
         <v>96.0</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="4">
         <v>38959.0</v>
       </c>
       <c r="D98" s="1">
         <v>2.0E7</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="5">
         <v>8.4474E8</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="6">
+      <c r="A99" s="1">
         <v>97.0</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="4">
         <v>39131.0</v>
       </c>
       <c r="D99" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="5">
         <v>8.4574E8</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="6">
+      <c r="A100" s="1">
         <v>98.0</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="4">
         <v>39171.0</v>
       </c>
       <c r="D100" s="1">
         <v>600000.0</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="5">
         <v>8.4634E8</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="6">
+      <c r="A101" s="1">
         <v>99.0</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="4">
         <v>39174.0</v>
       </c>
       <c r="D101" s="1">
         <v>1.65E8</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="5">
         <v>1.01134E9</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="6">
+      <c r="A102" s="1">
         <v>100.0</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="4">
         <v>39712.0</v>
       </c>
       <c r="D102" s="1">
         <v>1000000.0</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="5">
         <v>1.01234E9</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="6">
+      <c r="A103" s="1">
         <v>101.0</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="4">
         <v>39779.0</v>
       </c>
       <c r="D103" s="1">
         <v>100000.0</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="5">
         <v>1.01244E9</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="6">
+      <c r="A104" s="1">
         <v>102.0</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="4">
         <v>39796.0</v>
       </c>
       <c r="D104" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="5">
         <v>1.01394E9</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="6">
+      <c r="A105" s="1">
         <v>103.0</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="4">
         <v>40122.0</v>
       </c>
       <c r="D105" s="1">
         <v>140000.0</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="5">
         <v>1.01408E9</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="6">
+      <c r="A106" s="1">
         <v>104.0</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="4">
         <v>40161.0</v>
       </c>
       <c r="D106" s="1">
         <v>160000.0</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="5">
         <v>1.01424E9</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="6">
+      <c r="A107" s="1">
         <v>105.0</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="4">
         <v>40180.0</v>
       </c>
       <c r="D107" s="1">
         <v>1200000.0</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="5">
         <v>1.01544E9</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="6">
+      <c r="A108" s="1">
         <v>106.0</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="4">
         <v>40465.0</v>
       </c>
       <c r="D108" s="1">
         <v>2700000.0</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="5">
         <v>1.01814E9</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="6">
+      <c r="A109" s="1">
         <v>107.0</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="4">
         <v>40521.0</v>
       </c>
       <c r="D109" s="1">
         <v>530000.0</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="5">
         <v>1.01867E9</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="6">
+      <c r="A110" s="1">
         <v>108.0</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="4">
         <v>41810.0</v>
       </c>
       <c r="D110" s="1">
         <v>400000.0</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="5">
         <v>1.01907E9</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="6">
+      <c r="A111" s="1">
         <v>109.0</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="4">
         <v>42038.0</v>
       </c>
       <c r="D111" s="1">
         <v>1500000.0</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="5">
         <v>1.02057E9</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="6">
+      <c r="A112" s="1">
         <v>110.0</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="4">
         <v>42141.0</v>
       </c>
       <c r="D112" s="1">
         <v>4600000.0</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="5">
         <v>1.02517E9</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1">
-      <c r="A113" s="6">
+      <c r="A113" s="1">
         <v>111.0</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="4">
         <v>42216.0</v>
       </c>
       <c r="D113" s="1">
         <v>2000000.0</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="5">
         <v>1.02717E9</v>
       </c>
     </row>
     <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="6">
+      <c r="A114" s="1">
         <v>112.0</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="4">
         <v>42240.0</v>
       </c>
       <c r="D114" s="1">
         <v>3.57E7</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="5">
         <v>1.06287E9</v>
       </c>
     </row>
     <row r="115" ht="13.5" customHeight="1">
-      <c r="A115" s="6">
+      <c r="A115" s="1">
         <v>113.0</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="4">
         <v>42516.0</v>
       </c>
       <c r="D115" s="1">
         <v>500000.0</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="5">
         <v>1.06337E9</v>
       </c>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="6">
+      <c r="A116" s="1">
         <v>114.0</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="4">
         <v>42624.0</v>
       </c>
       <c r="D116" s="1">
         <v>5940000.0</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="5">
         <v>1.06931E9</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="6">
+      <c r="A117" s="1">
         <v>115.0</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="4">
         <v>42766.0</v>
       </c>
       <c r="D117" s="1">
         <v>5600000.0</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="5">
         <v>1.07491E9</v>
       </c>
     </row>
     <row r="118" ht="13.5" customHeight="1">
-      <c r="A118" s="6">
+      <c r="A118" s="1">
         <v>116.0</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="4">
         <v>42929.0</v>
       </c>
       <c r="D118" s="1">
         <v>8000000.0</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="5">
         <v>1.08291E9</v>
       </c>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="6">
+      <c r="A119" s="1">
         <v>117.0</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="4">
         <v>43193.0</v>
       </c>
       <c r="D119" s="1">
         <v>500000.0</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="5">
         <v>1.08341E9</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="6">
+      <c r="A120" s="1">
         <v>118.0</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="4">
         <v>43217.0</v>
       </c>
       <c r="D120" s="1">
         <v>8000000.0</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="5">
         <v>1.09141E9</v>
       </c>
     </row>
     <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="6">
+      <c r="A121" s="1">
         <v>119.0</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="4">
         <v>43294.0</v>
       </c>
       <c r="D121" s="1">
         <v>300000.0</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="5">
         <v>1.09171E9</v>
       </c>
     </row>

--- a/rawdata/TablePiton.xlsx
+++ b/rawdata/TablePiton.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="cb0tkmI2V7Zq38H1Oz+IF1Jix63grBT7oCK1CXSrSSI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bZn3WM65L+iiDhOEZQ7dUHgQVdKEgg6nnd7gdfY2e2M="/>
     </ext>
   </extLst>
 </workbook>
@@ -419,22 +419,22 @@
         <v>1.295E7</v>
       </c>
       <c r="G4" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" s="1">
         <v>73.0</v>
       </c>
       <c r="I4" s="1">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
       <c r="J4" s="3">
         <v>36360.0</v>
       </c>
       <c r="K4" s="3">
-        <v>45109.0</v>
+        <v>43923.0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0219</v>
+        <v>0.02294</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
@@ -2162,74 +2162,19 @@
       </c>
     </row>
     <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="1">
-        <v>126.0</v>
-      </c>
-      <c r="B128" s="3">
-        <v>44172.0</v>
-      </c>
-      <c r="D128" s="1">
-        <v>800000.0</v>
-      </c>
-      <c r="E128" s="1">
-        <v>1.13521904E9</v>
-      </c>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="1">
-        <v>127.0</v>
-      </c>
-      <c r="B129" s="3">
-        <v>44295.0</v>
-      </c>
-      <c r="D129" s="1">
-        <v>1.3E7</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1.14821904E9</v>
-      </c>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" ht="13.5" customHeight="1">
-      <c r="A130" s="1">
-        <v>128.0</v>
-      </c>
-      <c r="B130" s="3">
-        <v>44552.0</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1.134E7</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1.15955904E9</v>
-      </c>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" ht="13.5" customHeight="1">
-      <c r="A131" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="B131" s="3">
-        <v>44823.0</v>
-      </c>
-      <c r="D131" s="1">
-        <v>1.16E7</v>
-      </c>
-      <c r="E131" s="1">
-        <v>1.17115904E9</v>
-      </c>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="1">
-        <v>130.0</v>
-      </c>
-      <c r="B132" s="3">
-        <v>45109.0</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1.288E7</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1.18403904E9</v>
-      </c>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" ht="13.5" customHeight="1"/>
     <row r="134" ht="13.5" customHeight="1"/>
